--- a/operate-code.xlsx
+++ b/operate-code.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">operate</t>
   </si>
@@ -34,25 +34,37 @@
     <t xml:space="preserve">description_jp</t>
   </si>
   <si>
-    <t xml:space="preserve">确认修改密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建项目后保存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">启动扫描</t>
-  </si>
-  <si>
-    <t xml:space="preserve">停止扫描</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重命名项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">移动项目至垃圾桶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">导出项目报告</t>
+    <t xml:space="preserve">确认修改密码成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建项目后保存成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">启动扫描成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">启动扫描失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停止扫描失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停止扫描成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重命名项目成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重命名项目失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移动项目至垃圾桶成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">导出项目报告失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">导出项目报告成功</t>
   </si>
 </sst>
 </file>
@@ -88,6 +100,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,19 +175,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -193,7 +204,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1100</v>
+        <v>11001</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -201,7 +212,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2100</v>
+        <v>21001</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -209,7 +220,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2200</v>
+        <v>22001</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -217,7 +228,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>2201</v>
+        <v>22000</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -225,7 +236,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>2202</v>
+        <v>22010</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -233,7 +244,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>2203</v>
+        <v>22011</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -241,10 +252,42 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>2204</v>
+        <v>22021</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>22020</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>22031</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>22040</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>22041</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
